--- a/biology/Médecine/Mythomanie/Mythomanie.xlsx
+++ b/biology/Médecine/Mythomanie/Mythomanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mythomanie désigne un trouble pathologique caractérisé par une tendance au mensonge et la fabulation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mythomanie désigne un trouble pathologique caractérisé par une tendance au mensonge et la fabulation.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce comportement a été décrit pour la première fois par le psychiatre Anton Delbrück (de) en 1891[2]. Le terme a été réutilisé en 1905 par l'aliéniste Ernest Dupré pour entre autres décrire un des traits de l'hystérie. Il désignait ainsi une « tendance constitutionnelle présentée par certains sujets à altérer la vérité, à mentir, à imaginer des histoires (fabulations) enfin à imiter des états organiques anormaux » qu'il voyait comme des simulations, d'où le lien à l'hystérie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comportement a été décrit pour la première fois par le psychiatre Anton Delbrück (de) en 1891. Le terme a été réutilisé en 1905 par l'aliéniste Ernest Dupré pour entre autres décrire un des traits de l'hystérie. Il désignait ainsi une « tendance constitutionnelle présentée par certains sujets à altérer la vérité, à mentir, à imaginer des histoires (fabulations) enfin à imiter des états organiques anormaux » qu'il voyait comme des simulations, d'où le lien à l'hystérie.
 La mythomanie peut être décelée chez l'enfant, Dupré l'ayant décrite de manière détaillée, censée évoluer plus ou moins naturellement vers une meilleure appréhension de la réalité, alors que la mythomanie de l'adulte peut s'associer à l'hystérie, à d'autres névroses, aux perversions ou même aux psychoses. En psychiatrie, et à part pour Dupré, la mythomanie est rarement considérée comme un symptôme isolé, ce qui fait que le concept est la plupart du temps traité en association avec les autres troubles auxquels elle est associée.
-Le terme n'est plus beaucoup utilisé en psychiatrie. Il n'existe pas dans les dernières classifications. Les recherches actuelles sur les syndromes de conversion montrent que cette pathologie fonctionnelle cérébrale est différente d'une simple simulation[3][source insuffisante].
+Le terme n'est plus beaucoup utilisé en psychiatrie. Il n'existe pas dans les dernières classifications. Les recherches actuelles sur les syndromes de conversion montrent que cette pathologie fonctionnelle cérébrale est différente d'une simple simulation[source insuffisante].
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude démontre qu'un délinquant juvénile sur 1 000 serait mythomane. L'âge d'apparition moyen est de 16 ans et ce trouble comportemental serait aussi bien répandu chez les hommes que chez les femmes[4]. 40 % des cas rapportés proviendraient d'une anomalie du système nerveux[4] (par exemple une épilepsie, un traumatisme crânien ou une infection du système nerveux[4]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude démontre qu'un délinquant juvénile sur 1 000 serait mythomane. L'âge d'apparition moyen est de 16 ans et ce trouble comportemental serait aussi bien répandu chez les hommes que chez les femmes. 40 % des cas rapportés proviendraient d'une anomalie du système nerveux (par exemple une épilepsie, un traumatisme crânien ou une infection du système nerveux).
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mensonge désigne l'acte de donner intentionnellement une fausse information[5]. Certains individus le font même sans exprimer aucune crainte[6]. Le mensonge pathologique peut avoir des effets néfastes (faux jugements notamment) dans la vie de l'individu et de son entourage[7]. Le mensonge excessif est communément perçu chez les patients atteints de troubles mentaux. Les individus souffrant de trouble de la personnalité antisociale utilisent le mensonge dans le but de tirer profit de leur entourage. Certains individus souffrant de trouble de la personnalité borderline mentent pour attirer l'attention sur eux en clamant qu'ils sont délaissés ou maltraités[8]. Le mensonge pathologique peut survenir parfois lorsqu'un individu ment sans pour autant tirer profit de ce mensonge[9].
-Il existe de nombreuses conséquences chez les patients qui mentent d'une manière abusive. Étant donné la perte de confiance qu'entraînent les mensonges compulsifs, l'entourage du patient peut se défier de la personne, voire s'en détourner. Si le comportement maladif persiste, les conséquences du mensonge peuvent s'avérer catastrophiques voire criminelles[2]. Certaines études suggèrent que certains individus auraient une « prédisposition à mentir »[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mensonge désigne l'acte de donner intentionnellement une fausse information. Certains individus le font même sans exprimer aucune crainte. Le mensonge pathologique peut avoir des effets néfastes (faux jugements notamment) dans la vie de l'individu et de son entourage. Le mensonge excessif est communément perçu chez les patients atteints de troubles mentaux. Les individus souffrant de trouble de la personnalité antisociale utilisent le mensonge dans le but de tirer profit de leur entourage. Certains individus souffrant de trouble de la personnalité borderline mentent pour attirer l'attention sur eux en clamant qu'ils sont délaissés ou maltraités. Le mensonge pathologique peut survenir parfois lorsqu'un individu ment sans pour autant tirer profit de ce mensonge.
+Il existe de nombreuses conséquences chez les patients qui mentent d'une manière abusive. Étant donné la perte de confiance qu'entraînent les mensonges compulsifs, l'entourage du patient peut se défier de la personne, voire s'en détourner. Si le comportement maladif persiste, les conséquences du mensonge peuvent s'avérer catastrophiques voire criminelles. Certaines études suggèrent que certains individus auraient une « prédisposition à mentir ».
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Classifications psychiatriques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les classifications actuelles ne considèrent pas toutes la mythomanie comme une pathologie. La Classification Internationale des Maladies (CIM-10) la classe dans les autres troubles de la personnalité qui sont des caractéristiques propres à chaque individu qu'il garde tout au long de sa vie[11]. Sa définition n'en est pas donnée dans la classification du Manuel diagnostique et statistique des troubles mentaux (DSM-IV).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les classifications actuelles ne considèrent pas toutes la mythomanie comme une pathologie. La Classification Internationale des Maladies (CIM-10) la classe dans les autres troubles de la personnalité qui sont des caractéristiques propres à chaque individu qu'il garde tout au long de sa vie. Sa définition n'en est pas donnée dans la classification du Manuel diagnostique et statistique des troubles mentaux (DSM-IV).
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Trouble factice ou simulation
 Syndrome de conversion
@@ -673,10 +695,12 @@
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La psychothérapie semblerait être la seule méthode efficace pour remédier au mensonge pathologique. Aucune recherche n'a été menée concernant un éventuel traitement pharmaceutique[2].
-Actuellement, il n'existe aucune étude sérieuse concernant un traitement efficace contre la mythomanie[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La psychothérapie semblerait être la seule méthode efficace pour remédier au mensonge pathologique. Aucune recherche n'a été menée concernant un éventuel traitement pharmaceutique.
+Actuellement, il n'existe aucune étude sérieuse concernant un traitement efficace contre la mythomanie.
 </t>
         </is>
       </c>
@@ -705,12 +729,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Certaines personnalités notables ont été qualifiées de mythomanes :
-Mary Baker (née Willcocks), dite « Princesse Caraboo » (1791-1864), mystificatrice anglaise qui s'est permise de tromper les membres de la haute société d'une petite ville britannique durant quelques mois (en se prétendant être une princesse royale venue d'un pays lointain) avant d'être démasquée par une de ses anciennes employeuses comme étant une femme de ménage de la région[12].
+Mary Baker (née Willcocks), dite « Princesse Caraboo » (1791-1864), mystificatrice anglaise qui s'est permise de tromper les membres de la haute société d'une petite ville britannique durant quelques mois (en se prétendant être une princesse royale venue d'un pays lointain) avant d'être démasquée par une de ses anciennes employeuses comme étant une femme de ménage de la région.
 Sir Edmund Backhouse (en), baronet, dit « L'Ami des plus grands » (1873-1944).
-André Malraux (1901-1976), écrivain et homme politique[13].
+André Malraux (1901-1976), écrivain et homme politique.
 Jean-Claude Romand, un homme pris dans l'engrenage du mensonge, qui a abattu sa famille en 1993. Son histoire est racontée par Emmanuel Carrère dans L'Adversaire (2000), reprise par un film de Nicole Garcia avec Daniel Auteuil dans le rôle principal.
 Brian Blackwell, meurtrier anglais.
 Stéphane Bourgoin, écrivain de faits divers, spécialiste auto-proclamé des tueurs en série.</t>
@@ -741,7 +767,9 @@
           <t>Mythomanes dans la fiction</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La mythomanie est un thème utilisé dans la littérature :
 Tartarin de Tarascon, héros d'Alphonse Daudet ;
